--- a/experiments/0_ss_finding/time_required.xlsx
+++ b/experiments/0_ss_finding/time_required.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/owenpetchey/Desktop/microxanox/diversity_envresp1/experiments/0_ss_finding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13AE4C00-2B7E-6340-82E5-2E55825D71E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B76490-5107-8940-8783-5A472DEEE034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1660" yWindow="1220" windowWidth="29660" windowHeight="17600" xr2:uid="{06D63768-2800-344A-AD80-A7CE429FF153}"/>
+    <workbookView xWindow="6680" yWindow="2800" windowWidth="43480" windowHeight="21180" xr2:uid="{06D63768-2800-344A-AD80-A7CE429FF153}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="regression" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$G$2:$G$20</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$H$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$H$2:$H$20</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">data!$I$2:$I$23</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">data!$J$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">data!$J$2:$J$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>var_expt length</t>
   </si>
@@ -138,18 +139,6 @@
     <t>X Variable 1</t>
   </si>
   <si>
-    <t>RESIDUAL OUTPUT</t>
-  </si>
-  <si>
-    <t>Observation</t>
-  </si>
-  <si>
-    <t>Predicted Y</t>
-  </si>
-  <si>
-    <t>Residuals</t>
-  </si>
-  <si>
     <t>predicted seconds</t>
   </si>
   <si>
@@ -157,6 +146,21 @@
   </si>
   <si>
     <t>predicted hours</t>
+  </si>
+  <si>
+    <t>predicted days</t>
+  </si>
+  <si>
+    <t>num_strains</t>
+  </si>
+  <si>
+    <t>computer</t>
+  </si>
+  <si>
+    <t>my laptop</t>
+  </si>
+  <si>
+    <t>Rainer desktop</t>
   </si>
 </sst>
 </file>
@@ -310,10 +314,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$10</c:f>
+              <c:f>data!$I$2:$I$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>104166.66666666667</c:v>
                 </c:pt>
@@ -334,16 +338,31 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>5208333.333333333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20833333.333333332</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>208333333.33333334</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>208333333.33333334</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>208333333.33333334</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>208333333.33333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$10</c:f>
+              <c:f>data!$J$2:$J$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>61</c:v>
                 </c:pt>
@@ -361,6 +380,24 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1517</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2956</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25922</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29110</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30206</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21231</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -559,7 +596,384 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>data!$S$2:$S$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5.017728766960432</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.3187587626244124</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.4948500216800937</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0969100130080562</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.3979400086720375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0177287669604311</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.7166987712964508</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.3187587626244124</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.3187587626244124</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.3187587626244124</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.3187587626244124</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$T$2:$T$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.7853298350107671</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8920946026904804</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9956351945975499</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8864907251724818</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0086001717619175</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1809855807867304</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8976270912904414</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.470704429722788</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.4136685062824741</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.4640422054388109</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.4800932180589612</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3318-CE49-9BF0-2BB223C6C32F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1914695727"/>
+        <c:axId val="1914692687"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1914695727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1914692687"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1914692687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1914695727"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CH"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1115,20 +1529,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>781050</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1148,6 +2078,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>641350</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81150088-F0D5-7D46-8F74-069B78D19CA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1453,752 +2421,1208 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1196A045-20BB-3147-9839-C23564CDEFB5}">
-  <dimension ref="A1:V30"/>
+  <dimension ref="A1:U29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" t="s">
-        <v>38</v>
-      </c>
       <c r="K1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C2">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1">
+        <v>5000</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1">
+        <f>D2*E2</f>
+        <v>50000</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2" si="0" xml:space="preserve"> IF(C2&lt;12,C2, 12)</f>
+        <v>12</v>
+      </c>
+      <c r="H2" s="1">
+        <f>C2*D2*E2</f>
+        <v>1250000</v>
+      </c>
+      <c r="I2" s="1">
+        <f>H2/G2</f>
+        <v>104166.66666666667</v>
+      </c>
+      <c r="J2" s="1">
+        <v>61</v>
+      </c>
+      <c r="K2" s="1">
+        <f>I2*regression!B$18+regression!B$17</f>
+        <v>138.73461174086091</v>
+      </c>
+      <c r="L2" s="6">
+        <f t="shared" ref="L2:M6" si="1">K2/60</f>
+        <v>2.3122435290143484</v>
+      </c>
+      <c r="M2" s="6">
+        <f t="shared" si="1"/>
+        <v>3.8537392150239137E-2</v>
+      </c>
+      <c r="N2">
+        <f t="shared" ref="N2:N6" si="2">M2/24</f>
+        <v>1.6057246729266306E-3</v>
+      </c>
+      <c r="O2" s="1">
+        <f>I2*regression!B$18+regression!B$17</f>
+        <v>138.73461174086091</v>
+      </c>
+      <c r="S2">
+        <f>LOG10(I2)</f>
+        <v>5.017728766960432</v>
+      </c>
+      <c r="T2">
+        <f>LOG10(J2)</f>
+        <v>1.7853298350107671</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1">
+        <f>D3*E3</f>
+        <v>100000</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3" si="3" xml:space="preserve"> IF(C3&lt;12,C3, 12)</f>
+        <v>12</v>
+      </c>
+      <c r="H3" s="1">
+        <f>C3*D3*E3</f>
+        <v>2500000</v>
+      </c>
+      <c r="I3" s="1">
+        <f>H3/G3</f>
+        <v>208333.33333333334</v>
+      </c>
+      <c r="J3" s="1">
+        <v>78</v>
+      </c>
+      <c r="K3" s="1">
+        <f>I3*regression!B$18+regression!B$17</f>
+        <v>151.64765032434269</v>
+      </c>
+      <c r="L3" s="6">
+        <f t="shared" si="1"/>
+        <v>2.5274608387390449</v>
+      </c>
+      <c r="M3" s="6">
+        <f t="shared" si="1"/>
+        <v>4.2124347312317414E-2</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="2"/>
+        <v>1.7551811380132256E-3</v>
+      </c>
+      <c r="O3" s="1">
+        <f>I3*regression!B$18+regression!B$17</f>
+        <v>151.64765032434269</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S10" si="4">LOG10(I3)</f>
+        <v>5.3187587626244124</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T11" si="5">LOG10(J3)</f>
+        <v>1.8920946026904804</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1">
+        <f>D4*E4</f>
+        <v>150000</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4" si="6" xml:space="preserve"> IF(C4&lt;12,C4, 12)</f>
+        <v>12</v>
+      </c>
+      <c r="H4" s="1">
+        <f>C4*D4*E4</f>
+        <v>3750000</v>
+      </c>
+      <c r="I4" s="1">
+        <f>H4/G4</f>
+        <v>312500</v>
+      </c>
+      <c r="J4" s="1">
+        <v>99</v>
+      </c>
+      <c r="K4" s="1">
+        <f>I4*regression!B$18+regression!B$17</f>
+        <v>164.56068890782444</v>
+      </c>
+      <c r="L4" s="6">
+        <f t="shared" si="1"/>
+        <v>2.7426781484637406</v>
+      </c>
+      <c r="M4" s="6">
+        <f t="shared" si="1"/>
+        <v>4.5711302474395678E-2</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="2"/>
+        <v>1.9046376030998199E-3</v>
+      </c>
+      <c r="O4" s="1">
+        <f>I4*regression!B$18+regression!B$17</f>
+        <v>164.56068890782444</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="4"/>
+        <v>5.4948500216800937</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="5"/>
+        <v>1.9956351945975499</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E5">
+        <v>30</v>
+      </c>
+      <c r="F5" s="1">
+        <f>D5*E5</f>
+        <v>60000</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5" si="7" xml:space="preserve"> IF(C5&lt;12,C5, 12)</f>
+        <v>12</v>
+      </c>
+      <c r="H5" s="1">
+        <f>C5*D5*E5</f>
+        <v>1500000</v>
+      </c>
+      <c r="I5" s="1">
+        <f>H5/G5</f>
+        <v>125000</v>
+      </c>
+      <c r="J5" s="1">
+        <v>77</v>
+      </c>
+      <c r="K5" s="1">
+        <f>I5*regression!B$18+regression!B$17</f>
+        <v>141.31721945755726</v>
+      </c>
+      <c r="L5" s="6">
+        <f t="shared" si="1"/>
+        <v>2.3552869909592875</v>
+      </c>
+      <c r="M5" s="6">
+        <f t="shared" si="1"/>
+        <v>3.9254783182654789E-2</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="2"/>
+        <v>1.6356159659439496E-3</v>
+      </c>
+      <c r="O5" s="1">
+        <f>I5*regression!B$18+regression!B$17</f>
+        <v>141.31721945755726</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="4"/>
+        <v>5.0969100130080562</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="5"/>
+        <v>1.8864907251724818</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4000</v>
+      </c>
+      <c r="E6">
+        <v>30</v>
+      </c>
+      <c r="F6" s="1">
+        <f>D6*E6</f>
+        <v>120000</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6:G7" si="8" xml:space="preserve"> IF(C6&lt;12,C6, 12)</f>
+        <v>12</v>
+      </c>
+      <c r="H6" s="1">
+        <f>C6*D6*E6</f>
+        <v>3000000</v>
+      </c>
+      <c r="I6" s="1">
+        <f>H6/G6</f>
+        <v>250000</v>
+      </c>
+      <c r="J6" s="1">
+        <v>102</v>
+      </c>
+      <c r="K6" s="1">
+        <f>I6*regression!B$18+regression!B$17</f>
+        <v>156.81286575773538</v>
+      </c>
+      <c r="L6" s="6">
+        <f t="shared" si="1"/>
+        <v>2.6135477626289232</v>
+      </c>
+      <c r="M6" s="6">
+        <f t="shared" si="1"/>
+        <v>4.3559129377148717E-2</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="2"/>
+        <v>1.8149637240478633E-3</v>
+      </c>
+      <c r="O6" s="1">
+        <f>I6*regression!B$18+regression!B$17</f>
+        <v>156.81286575773538</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="4"/>
+        <v>5.3979400086720375</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="5"/>
+        <v>2.0086001717619175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1">
+        <f>D7*E7</f>
+        <v>5000000</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="H7" s="1">
+        <f>C7*D7*E7</f>
+        <v>125000000</v>
+      </c>
+      <c r="I7" s="1">
+        <f>H7/G7</f>
+        <v>10416666.666666666</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1517</v>
+      </c>
+      <c r="K7" s="1">
+        <f>I7*regression!B$18+regression!B$17</f>
+        <v>1417.1254315055562</v>
+      </c>
+      <c r="L7" s="6">
+        <f>K7/60</f>
+        <v>23.618757191759268</v>
+      </c>
+      <c r="M7" s="6">
+        <f>L7/60</f>
+        <v>0.39364595319598783</v>
+      </c>
+      <c r="N7">
+        <f>M7/24</f>
+        <v>1.6401914716499492E-2</v>
+      </c>
+      <c r="O7" s="1">
+        <f>I7*regression!B$18+regression!B$17</f>
+        <v>1417.1254315055562</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="4"/>
+        <v>7.0177287669604311</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="5"/>
+        <v>3.1809855807867304</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1">
+        <v>500000</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1">
+        <f>D8*E8</f>
+        <v>2500000</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ref="G8" si="9" xml:space="preserve"> IF(C8&lt;12,C8, 12)</f>
+        <v>12</v>
+      </c>
+      <c r="H8" s="1">
+        <f>C8*D8*E8</f>
+        <v>62500000</v>
+      </c>
+      <c r="I8" s="1">
+        <f>H8/G8</f>
+        <v>5208333.333333333</v>
+      </c>
+      <c r="J8" s="1">
+        <v>790</v>
+      </c>
+      <c r="K8" s="1">
+        <f>I8*regression!B$18+regression!B$17</f>
+        <v>771.47350233146767</v>
+      </c>
+      <c r="L8" s="6">
+        <f>K8/60</f>
+        <v>12.857891705524461</v>
+      </c>
+      <c r="M8" s="6">
+        <f>L8/60</f>
+        <v>0.21429819509207435</v>
+      </c>
+      <c r="N8">
+        <f>M8/24</f>
+        <v>8.9290914621697644E-3</v>
+      </c>
+      <c r="O8" s="1">
+        <f>I8*regression!B$18+regression!B$17</f>
+        <v>771.47350233146767</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="4"/>
+        <v>6.7166987712964508</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="5"/>
+        <v>2.8976270912904414</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <v>25</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1">
+        <f>D9*E9</f>
+        <v>10000000</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ref="G9" si="10" xml:space="preserve"> IF(C9&lt;12,C9, 12)</f>
+        <v>12</v>
+      </c>
+      <c r="H9" s="1">
+        <f>C9*D9*E9</f>
+        <v>250000000</v>
+      </c>
+      <c r="I9" s="1">
+        <f>H9/G9</f>
+        <v>20833333.333333332</v>
+      </c>
+      <c r="J9" s="1">
+        <v>2956</v>
+      </c>
+      <c r="K9" s="1">
+        <f>I9*regression!B$18+regression!B$17</f>
+        <v>2708.4292898537333</v>
+      </c>
+      <c r="L9" s="6">
+        <f>K9/60</f>
+        <v>45.140488164228891</v>
+      </c>
+      <c r="M9" s="6">
+        <f>L9/60</f>
+        <v>0.75234146940381486</v>
+      </c>
+      <c r="N9">
+        <f>M9/24</f>
+        <v>3.134756122515895E-2</v>
+      </c>
+      <c r="O9" s="1">
+        <f>I9*regression!B$18+regression!B$17</f>
+        <v>2708.4292898537333</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="4"/>
+        <v>7.3187587626244124</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="5"/>
+        <v>3.470704429722788</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+      <c r="F10" s="1">
+        <f>D10*E10</f>
+        <v>100000000</v>
+      </c>
+      <c r="G10">
+        <f t="shared" ref="G10" si="11" xml:space="preserve"> IF(C10&lt;12,C10, 12)</f>
+        <v>12</v>
+      </c>
+      <c r="H10" s="1">
+        <f>C10*D10*E10</f>
+        <v>2500000000</v>
+      </c>
+      <c r="I10" s="1">
+        <f>H10/G10</f>
+        <v>208333333.33333334</v>
+      </c>
+      <c r="J10" s="1">
+        <v>25922</v>
+      </c>
+      <c r="K10" s="1">
+        <f>I10*regression!B$18+regression!B$17</f>
+        <v>25951.898740120923</v>
+      </c>
+      <c r="L10" s="6">
+        <f>K10/60</f>
+        <v>432.53164566868207</v>
+      </c>
+      <c r="M10" s="6">
+        <f>L10/60</f>
+        <v>7.2088607611447015</v>
+      </c>
+      <c r="N10">
+        <f>M10/24</f>
+        <v>0.30036919838102921</v>
+      </c>
+      <c r="O10" s="1">
+        <f>I10*regression!B$18+regression!B$17</f>
+        <v>25951.898740120923</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="4"/>
+        <v>8.3187587626244124</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="5"/>
+        <v>4.4136685062824741</v>
+      </c>
+      <c r="U10" s="1"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>25</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="E11">
+        <v>100</v>
+      </c>
+      <c r="F11" s="1">
+        <f>D11*E11</f>
+        <v>100000000</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ref="G11" si="12" xml:space="preserve"> IF(C11&lt;12,C11, 12)</f>
+        <v>12</v>
+      </c>
+      <c r="H11" s="1">
+        <f>C11*D11*E11</f>
+        <v>2500000000</v>
+      </c>
+      <c r="I11" s="1">
+        <f>H11/G11</f>
+        <v>208333333.33333334</v>
+      </c>
+      <c r="J11" s="1">
+        <v>29110</v>
+      </c>
+      <c r="K11" s="1">
+        <f>I11*regression!B$18+regression!B$17</f>
+        <v>25951.898740120923</v>
+      </c>
+      <c r="L11" s="6">
+        <f>K11/60</f>
+        <v>432.53164566868207</v>
+      </c>
+      <c r="M11" s="6">
+        <f>L11/60</f>
+        <v>7.2088607611447015</v>
+      </c>
+      <c r="N11">
+        <f>M11/24</f>
+        <v>0.30036919838102921</v>
+      </c>
+      <c r="O11" s="1">
+        <f>I11*regression!B$18+regression!B$17</f>
+        <v>25951.898740120923</v>
+      </c>
+      <c r="S11">
+        <f t="shared" ref="S11:S13" si="13">LOG10(I11)</f>
+        <v>8.3187587626244124</v>
+      </c>
+      <c r="T11">
+        <f t="shared" ref="T11:T13" si="14">LOG10(J11)</f>
+        <v>4.4640422054388109</v>
+      </c>
+      <c r="U11" s="1"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
         <v>25</v>
       </c>
-      <c r="B2" s="1">
+      <c r="D12" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="E12">
+        <v>100</v>
+      </c>
+      <c r="F12" s="1">
+        <f>D12*E12</f>
+        <v>100000000</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ref="G12:G13" si="15" xml:space="preserve"> IF(C12&lt;12,C12, 12)</f>
+        <v>12</v>
+      </c>
+      <c r="H12" s="1">
+        <f>C12*D12*E12</f>
+        <v>2500000000</v>
+      </c>
+      <c r="I12" s="1">
+        <f>H12/G12</f>
+        <v>208333333.33333334</v>
+      </c>
+      <c r="J12" s="1">
+        <v>30206</v>
+      </c>
+      <c r="K12" s="1">
+        <f>I12*regression!B$18+regression!B$17</f>
+        <v>25951.898740120923</v>
+      </c>
+      <c r="L12" s="6">
+        <f>K12/60</f>
+        <v>432.53164566868207</v>
+      </c>
+      <c r="M12" s="6">
+        <f>L12/60</f>
+        <v>7.2088607611447015</v>
+      </c>
+      <c r="N12">
+        <f>M12/24</f>
+        <v>0.30036919838102921</v>
+      </c>
+      <c r="O12" s="1">
+        <f>I12*regression!B$18+regression!B$17</f>
+        <v>25951.898740120923</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="13"/>
+        <v>8.3187587626244124</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="14"/>
+        <v>4.4800932180589612</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>25</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="E13">
+        <v>100</v>
+      </c>
+      <c r="F13" s="1">
+        <f>D13*E13</f>
+        <v>100000000</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="H13" s="1">
+        <f>C13*D13*E13</f>
+        <v>2500000000</v>
+      </c>
+      <c r="I13" s="1">
+        <f>H13/G13</f>
+        <v>208333333.33333334</v>
+      </c>
+      <c r="J13" s="1">
+        <v>21231</v>
+      </c>
+      <c r="K13" s="1">
+        <f>I13*regression!B$18+regression!B$17</f>
+        <v>25951.898740120923</v>
+      </c>
+      <c r="L13" s="6">
+        <f>K13/60</f>
+        <v>432.53164566868207</v>
+      </c>
+      <c r="M13" s="6">
+        <f>L13/60</f>
+        <v>7.2088607611447015</v>
+      </c>
+      <c r="N13">
+        <f>M13/24</f>
+        <v>0.30036919838102921</v>
+      </c>
+      <c r="O13" s="1">
+        <f>I13*regression!B$18+regression!B$17</f>
+        <v>25951.898740120923</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="13"/>
+        <v>8.3187587626244124</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="14"/>
+        <v>4.3269704503249207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="D14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="D15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25" s="1">
+        <v>10000</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25" s="1">
+        <f>D25*E25</f>
+        <v>200000</v>
+      </c>
+      <c r="G25">
+        <f xml:space="preserve"> IF(C25&lt;12,C25, 12)</f>
+        <v>4</v>
+      </c>
+      <c r="H25" s="1">
+        <f>C25*D25*E25</f>
+        <v>800000</v>
+      </c>
+      <c r="I25" s="1">
+        <f>H25/G25</f>
+        <v>200000</v>
+      </c>
+      <c r="L25" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26" s="1">
         <v>5000</v>
       </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1">
-        <f>B2*C2</f>
-        <v>50000</v>
-      </c>
-      <c r="E2">
-        <f t="shared" ref="E2" si="0" xml:space="preserve"> IF(A2&lt;12,A2, 12)</f>
-        <v>12</v>
-      </c>
-      <c r="F2" s="1">
-        <f>A2*B2*C2</f>
-        <v>1250000</v>
-      </c>
-      <c r="G2" s="1">
-        <f>F2/E2</f>
-        <v>104166.66666666667</v>
-      </c>
-      <c r="H2" s="1">
+      <c r="E26">
+        <v>20</v>
+      </c>
+      <c r="F26" s="1">
+        <f>D26*E26</f>
+        <v>100000</v>
+      </c>
+      <c r="G26">
+        <f xml:space="preserve"> IF(C26&lt;12,C26, 12)</f>
+        <v>4</v>
+      </c>
+      <c r="H26" s="1">
+        <f>C26*D26*E26</f>
+        <v>400000</v>
+      </c>
+      <c r="I26" s="1">
+        <f>H26/G26</f>
+        <v>100000</v>
+      </c>
+      <c r="L26" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C27">
+        <v>9</v>
+      </c>
+      <c r="D27" s="1">
+        <v>10000</v>
+      </c>
+      <c r="E27">
+        <v>20</v>
+      </c>
+      <c r="F27" s="1">
+        <f>D27*E27</f>
+        <v>200000</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ref="G27:G28" si="16" xml:space="preserve"> IF(C27&lt;12,C27, 12)</f>
+        <v>9</v>
+      </c>
+      <c r="H27" s="1">
+        <f>C27*D27*E27</f>
+        <v>1800000</v>
+      </c>
+      <c r="I27" s="1">
+        <f>H27/G27</f>
+        <v>200000</v>
+      </c>
+      <c r="K27" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C28">
+        <v>9</v>
+      </c>
+      <c r="D28" s="1">
+        <v>20000</v>
+      </c>
+      <c r="E28">
+        <v>20</v>
+      </c>
+      <c r="F28" s="1">
+        <f>D28*E28</f>
+        <v>400000</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="H28" s="1">
+        <f>C28*D28*E28</f>
+        <v>3600000</v>
+      </c>
+      <c r="I28" s="1">
+        <f>H28/G28</f>
+        <v>400000</v>
+      </c>
+      <c r="K28">
         <v>61</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="N2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>25</v>
-      </c>
-      <c r="B3" s="1">
-        <v>10000</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1">
-        <f>B3*C3</f>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C29">
+        <v>9</v>
+      </c>
+      <c r="D29" s="1">
+        <v>5000</v>
+      </c>
+      <c r="E29">
+        <v>20</v>
+      </c>
+      <c r="F29" s="1">
+        <f>D29*E29</f>
         <v>100000</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3" si="1" xml:space="preserve"> IF(A3&lt;12,A3, 12)</f>
-        <v>12</v>
-      </c>
-      <c r="F3" s="1">
-        <f>A3*B3*C3</f>
-        <v>2500000</v>
-      </c>
-      <c r="G3" s="1">
-        <f>F3/E3</f>
-        <v>208333.33333333334</v>
-      </c>
-      <c r="H3" s="1">
-        <v>78</v>
-      </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>25</v>
-      </c>
-      <c r="B4" s="1">
-        <v>10000</v>
-      </c>
-      <c r="C4">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1">
-        <f>B4*C4</f>
-        <v>150000</v>
-      </c>
-      <c r="E4">
-        <f t="shared" ref="E4" si="2" xml:space="preserve"> IF(A4&lt;12,A4, 12)</f>
-        <v>12</v>
-      </c>
-      <c r="F4" s="1">
-        <f>A4*B4*C4</f>
-        <v>3750000</v>
-      </c>
-      <c r="G4" s="1">
-        <f>F4/E4</f>
-        <v>312500</v>
-      </c>
-      <c r="H4" s="1">
-        <v>99</v>
-      </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="N4" s="5" t="s">
+      <c r="G29">
+        <f xml:space="preserve"> IF(C29&lt;12,C29, 12)</f>
         <v>9</v>
       </c>
-      <c r="O4" s="5"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>25</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2000</v>
-      </c>
-      <c r="C5">
-        <v>30</v>
-      </c>
-      <c r="D5" s="1">
-        <f>B5*C5</f>
-        <v>60000</v>
-      </c>
-      <c r="E5">
-        <f t="shared" ref="E5" si="3" xml:space="preserve"> IF(A5&lt;12,A5, 12)</f>
-        <v>12</v>
-      </c>
-      <c r="F5" s="1">
-        <f>A5*B5*C5</f>
-        <v>1500000</v>
-      </c>
-      <c r="G5" s="1">
-        <f>F5/E5</f>
-        <v>125000</v>
-      </c>
-      <c r="H5" s="1">
-        <v>77</v>
-      </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="N5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O5" s="2">
-        <v>0.89180624411510179</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>25</v>
-      </c>
-      <c r="B6" s="1">
-        <v>4000</v>
-      </c>
-      <c r="C6">
-        <v>30</v>
-      </c>
-      <c r="D6" s="1">
-        <f>B6*C6</f>
-        <v>120000</v>
-      </c>
-      <c r="E6">
-        <f t="shared" ref="E6:E7" si="4" xml:space="preserve"> IF(A6&lt;12,A6, 12)</f>
-        <v>12</v>
-      </c>
-      <c r="F6" s="1">
-        <f>A6*B6*C6</f>
-        <v>3000000</v>
-      </c>
-      <c r="G6" s="1">
-        <f>F6/E6</f>
-        <v>250000</v>
-      </c>
-      <c r="H6" s="1">
-        <v>102</v>
-      </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="N6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O6" s="2">
-        <v>0.7953183770426846</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>25</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7" s="1">
-        <f>B7*C7</f>
-        <v>5000000</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-      <c r="F7" s="1">
-        <f>A7*B7*C7</f>
-        <v>125000000</v>
-      </c>
-      <c r="G7" s="1">
-        <f>F7/E7</f>
-        <v>10416666.666666666</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1517</v>
-      </c>
-      <c r="I7" s="1">
-        <f>G7*O$19+O18</f>
-        <v>1874.9190751445085</v>
-      </c>
-      <c r="J7" s="6">
-        <f>I7/60</f>
-        <v>31.248651252408475</v>
-      </c>
-      <c r="K7" s="6">
-        <f>J7/60</f>
-        <v>0.52081085420680795</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O7" s="2">
-        <v>0.72709116939024609</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>25</v>
-      </c>
-      <c r="B8" s="1">
-        <v>500000</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8" s="1">
-        <f>B8*C8</f>
-        <v>2500000</v>
-      </c>
-      <c r="E8">
-        <f t="shared" ref="E8" si="5" xml:space="preserve"> IF(A8&lt;12,A8, 12)</f>
-        <v>12</v>
-      </c>
-      <c r="F8" s="1">
-        <f>A8*B8*C8</f>
-        <v>62500000</v>
-      </c>
-      <c r="G8" s="1">
-        <f>F8/E8</f>
-        <v>5208333.333333333</v>
-      </c>
-      <c r="I8" s="1">
-        <f>G8*O$19+O19</f>
-        <v>913.29497304046231</v>
-      </c>
-      <c r="J8" s="6">
-        <f>I8/60</f>
-        <v>15.221582884007706</v>
-      </c>
-      <c r="K8" s="6">
-        <f>J8/60</f>
-        <v>0.2536930480667951</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O8" s="2">
-        <v>8.9008670097924494</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="N9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="O9" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-    </row>
-    <row r="11" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="N11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="R12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="S12" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="N13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O13" s="2">
-        <v>1</v>
-      </c>
-      <c r="P13" s="2">
-        <v>923.52369942196515</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>923.52369942196515</v>
-      </c>
-      <c r="R13" s="2">
-        <v>11.656909382752076</v>
-      </c>
-      <c r="S13" s="2">
-        <v>4.2020423809782756E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="N14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O14" s="2">
-        <v>3</v>
-      </c>
-      <c r="P14" s="2">
-        <v>237.67630057803473</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>79.225433526011571</v>
-      </c>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-    </row>
-    <row r="15" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>400</v>
-      </c>
-      <c r="B15" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="C15">
-        <v>100</v>
-      </c>
-      <c r="D15" s="1">
-        <f>B15*C15</f>
-        <v>100000000</v>
-      </c>
-      <c r="E15">
-        <v>12</v>
-      </c>
-      <c r="F15" s="1">
-        <f>A15*B15*C15</f>
-        <v>40000000000</v>
-      </c>
-      <c r="G15" s="1">
-        <f>F15/E15</f>
-        <v>3333333333.3333335</v>
-      </c>
-      <c r="H15" s="1">
-        <f>G15*O19+48</f>
-        <v>584556.67052023124</v>
-      </c>
-      <c r="I15" s="1">
-        <f>H$15/60/60/24</f>
-        <v>6.7657022050952698</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="O15" s="3">
-        <v>4</v>
-      </c>
-      <c r="P15" s="3">
-        <v>1161.1999999999998</v>
-      </c>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-    </row>
-    <row r="16" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="N17" s="4"/>
-      <c r="O17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q17" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="R17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="S17" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="T17" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="U17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="V17" s="4" t="s">
+      <c r="H29" s="1">
+        <f>C29*D29*E29</f>
+        <v>900000</v>
+      </c>
+      <c r="I29" s="1">
+        <f>H29/G29</f>
+        <v>100000</v>
+      </c>
+      <c r="K29">
         <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="N18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O18" s="2">
-        <v>48.329479768786136</v>
-      </c>
-      <c r="P18" s="2">
-        <v>11.016209781248202</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>4.3871241314823726</v>
-      </c>
-      <c r="R18" s="2">
-        <v>2.1934463428385488E-2</v>
-      </c>
-      <c r="S18" s="2">
-        <v>13.27098365222254</v>
-      </c>
-      <c r="T18" s="2">
-        <v>83.387975885349732</v>
-      </c>
-      <c r="U18" s="2">
-        <v>13.27098365222254</v>
-      </c>
-      <c r="V18" s="2">
-        <v>83.387975885349732</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="N19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O19" s="3">
-        <v>1.7535260115606935E-4</v>
-      </c>
-      <c r="P19" s="3">
-        <v>5.1359466322983308E-5</v>
-      </c>
-      <c r="Q19" s="3">
-        <v>3.4142216364424964</v>
-      </c>
-      <c r="R19" s="3">
-        <v>4.2020423809782756E-2</v>
-      </c>
-      <c r="S19" s="3">
-        <v>1.1903857315148029E-5</v>
-      </c>
-      <c r="T19" s="3">
-        <v>3.3880134499699068E-4</v>
-      </c>
-      <c r="U19" s="3">
-        <v>1.1903857315148029E-5</v>
-      </c>
-      <c r="V19" s="3">
-        <v>3.3880134499699068E-4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>4</v>
-      </c>
-      <c r="B22" s="1">
-        <v>10000</v>
-      </c>
-      <c r="C22">
-        <v>20</v>
-      </c>
-      <c r="D22" s="1">
-        <f>B22*C22</f>
-        <v>200000</v>
-      </c>
-      <c r="E22">
-        <f xml:space="preserve"> IF(A22&lt;12,A22, 12)</f>
-        <v>4</v>
-      </c>
-      <c r="F22" s="1">
-        <f>A22*B22*C22</f>
-        <v>800000</v>
-      </c>
-      <c r="G22" s="1">
-        <f>F22/E22</f>
-        <v>200000</v>
-      </c>
-      <c r="J22" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>4</v>
-      </c>
-      <c r="B23" s="1">
-        <v>5000</v>
-      </c>
-      <c r="C23">
-        <v>20</v>
-      </c>
-      <c r="D23" s="1">
-        <f>B23*C23</f>
-        <v>100000</v>
-      </c>
-      <c r="E23">
-        <f xml:space="preserve"> IF(A23&lt;12,A23, 12)</f>
-        <v>4</v>
-      </c>
-      <c r="F23" s="1">
-        <f>A23*B23*C23</f>
-        <v>400000</v>
-      </c>
-      <c r="G23" s="1">
-        <f>F23/E23</f>
-        <v>100000</v>
-      </c>
-      <c r="J23" s="1">
-        <v>23</v>
-      </c>
-      <c r="N23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>9</v>
-      </c>
-      <c r="B24" s="1">
-        <v>10000</v>
-      </c>
-      <c r="C24">
-        <v>20</v>
-      </c>
-      <c r="D24" s="1">
-        <f>B24*C24</f>
-        <v>200000</v>
-      </c>
-      <c r="E24">
-        <f t="shared" ref="E24:E25" si="6" xml:space="preserve"> IF(A24&lt;12,A24, 12)</f>
-        <v>9</v>
-      </c>
-      <c r="F24" s="1">
-        <f>A24*B24*C24</f>
-        <v>1800000</v>
-      </c>
-      <c r="G24" s="1">
-        <f>F24/E24</f>
-        <v>200000</v>
-      </c>
-      <c r="I24" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>9</v>
-      </c>
-      <c r="B25" s="1">
-        <v>20000</v>
-      </c>
-      <c r="C25">
-        <v>20</v>
-      </c>
-      <c r="D25" s="1">
-        <f>B25*C25</f>
-        <v>400000</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="F25" s="1">
-        <f>A25*B25*C25</f>
-        <v>3600000</v>
-      </c>
-      <c r="G25" s="1">
-        <f>F25/E25</f>
-        <v>400000</v>
-      </c>
-      <c r="I25">
-        <v>61</v>
-      </c>
-      <c r="N25" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="O25" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="P25" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>9</v>
-      </c>
-      <c r="B26" s="1">
-        <v>5000</v>
-      </c>
-      <c r="C26">
-        <v>20</v>
-      </c>
-      <c r="D26" s="1">
-        <f>B26*C26</f>
-        <v>100000</v>
-      </c>
-      <c r="E26">
-        <f xml:space="preserve"> IF(A26&lt;12,A26, 12)</f>
-        <v>9</v>
-      </c>
-      <c r="F26" s="1">
-        <f>A26*B26*C26</f>
-        <v>900000</v>
-      </c>
-      <c r="G26" s="1">
-        <f>F26/E26</f>
-        <v>100000</v>
-      </c>
-      <c r="I26">
-        <v>31</v>
-      </c>
-      <c r="N26" s="2">
-        <v>1</v>
-      </c>
-      <c r="O26" s="2">
-        <v>66.595375722543366</v>
-      </c>
-      <c r="P26" s="2">
-        <v>-5.5953757225433662</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="N27" s="2">
-        <v>2</v>
-      </c>
-      <c r="O27" s="2">
-        <v>84.861271676300589</v>
-      </c>
-      <c r="P27" s="2">
-        <v>-6.8612716763005892</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="N28" s="2">
-        <v>3</v>
-      </c>
-      <c r="O28" s="2">
-        <v>103.12716763005781</v>
-      </c>
-      <c r="P28" s="2">
-        <v>-4.1271676300578122</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="N29" s="2">
-        <v>4</v>
-      </c>
-      <c r="O29" s="2">
-        <v>70.248554913294811</v>
-      </c>
-      <c r="P29" s="2">
-        <v>6.7514450867051892</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="N30" s="3">
-        <v>5</v>
-      </c>
-      <c r="O30" s="3">
-        <v>92.167630057803478</v>
-      </c>
-      <c r="P30" s="3">
-        <v>9.8323699421965216</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63212B42-A013-F842-8196-626A67459250}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.99991669638138791</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.9998333997022687</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.9998095996597357</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2">
+        <v>116.74719751494391</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>572588782.64310682</v>
+      </c>
+      <c r="D12" s="2">
+        <v>572588782.64310682</v>
+      </c>
+      <c r="E12" s="2">
+        <v>42009.731634501528</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1.7371023465160076E-14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="2">
+        <v>7</v>
+      </c>
+      <c r="C13" s="2">
+        <v>95409.356893153279</v>
+      </c>
+      <c r="D13" s="2">
+        <v>13629.908127593326</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="3">
+        <v>8</v>
+      </c>
+      <c r="C14" s="3">
+        <v>572684192</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="2">
+        <v>125.82157315737913</v>
+      </c>
+      <c r="C17" s="2">
+        <v>42.276097233015371</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2.9761870511339259</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2.0626019677845265E-2</v>
+      </c>
+      <c r="F17" s="2">
+        <v>25.854488377496367</v>
+      </c>
+      <c r="G17" s="2">
+        <v>225.78865793726192</v>
+      </c>
+      <c r="H17" s="2">
+        <v>25.854488377496367</v>
+      </c>
+      <c r="I17" s="2">
+        <v>225.78865793726192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1.2396517040142501E-4</v>
+      </c>
+      <c r="C18" s="3">
+        <v>6.0481802839051372E-7</v>
+      </c>
+      <c r="D18" s="3">
+        <v>204.96275670106883</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1.7371023465160076E-14</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1.2253500302369228E-4</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1.2539533777915774E-4</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1.2253500302369228E-4</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1.2539533777915774E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/experiments/0_ss_finding/time_required.xlsx
+++ b/experiments/0_ss_finding/time_required.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/owenpetchey/Desktop/microxanox/diversity_envresp1/experiments/0_ss_finding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B76490-5107-8940-8783-5A472DEEE034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83909006-9787-3847-BAD3-B14B97E2ECF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6680" yWindow="2800" windowWidth="43480" windowHeight="21180" xr2:uid="{06D63768-2800-344A-AD80-A7CE429FF153}"/>
+    <workbookView xWindow="8160" yWindow="980" windowWidth="29660" windowHeight="17600" xr2:uid="{06D63768-2800-344A-AD80-A7CE429FF153}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>var_expt length</t>
   </si>
@@ -314,10 +314,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>data!$I$2:$I$13</c:f>
+              <c:f>data!$I$2:$I$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>104166.66666666667</c:v>
                 </c:pt>
@@ -353,16 +353,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>208333333.33333334</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>483333333.33333331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>data!$J$2:$J$13</c:f>
+              <c:f>data!$J$2:$J$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>61</c:v>
                 </c:pt>
@@ -398,6 +401,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>21231</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>55000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -657,10 +663,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>data!$S$2:$S$12</c:f>
+              <c:f>data!$S$2:$S$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>5.017728766960432</c:v>
                 </c:pt>
@@ -693,16 +699,22 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>8.3187587626244124</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.3187587626244124</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.6842467475153118</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>data!$T$2:$T$12</c:f>
+              <c:f>data!$T$2:$T$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1.7853298350107671</c:v>
                 </c:pt>
@@ -735,6 +747,12 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>4.4800932180589612</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.3269704503249207</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.7403626894942441</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2423,8 +2441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1196A045-20BB-3147-9839-C23564CDEFB5}">
   <dimension ref="A1:U29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3062,11 +3080,11 @@
         <v>25951.898740120923</v>
       </c>
       <c r="S11">
-        <f t="shared" ref="S11:S13" si="13">LOG10(I11)</f>
+        <f t="shared" ref="S11:S14" si="13">LOG10(I11)</f>
         <v>8.3187587626244124</v>
       </c>
       <c r="T11">
-        <f t="shared" ref="T11:T13" si="14">LOG10(J11)</f>
+        <f t="shared" ref="T11:T14" si="14">LOG10(J11)</f>
         <v>4.4640422054388109</v>
       </c>
       <c r="U11" s="1"/>
@@ -3092,7 +3110,7 @@
         <v>100000000</v>
       </c>
       <c r="G12">
-        <f t="shared" ref="G12:G13" si="15" xml:space="preserve"> IF(C12&lt;12,C12, 12)</f>
+        <f t="shared" ref="G12:G14" si="15" xml:space="preserve"> IF(C12&lt;12,C12, 12)</f>
         <v>12</v>
       </c>
       <c r="H12" s="1">
@@ -3200,15 +3218,68 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="D14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="O14" s="1"/>
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>58</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="E14">
+        <v>100</v>
+      </c>
+      <c r="F14" s="1">
+        <f>D14*E14</f>
+        <v>100000000</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="H14" s="1">
+        <f>C14*D14*E14</f>
+        <v>5800000000</v>
+      </c>
+      <c r="I14" s="1">
+        <f>H14/G14</f>
+        <v>483333333.33333331</v>
+      </c>
+      <c r="J14" s="1">
+        <v>55000</v>
+      </c>
+      <c r="K14" s="1">
+        <f>I14*regression!B$18+regression!B$17</f>
+        <v>60042.320600512801</v>
+      </c>
+      <c r="L14" s="6">
+        <f>K14/60</f>
+        <v>1000.7053433418801</v>
+      </c>
+      <c r="M14" s="6">
+        <f>L14/60</f>
+        <v>16.678422389031333</v>
+      </c>
+      <c r="N14">
+        <f>M14/24</f>
+        <v>0.69493426620963883</v>
+      </c>
+      <c r="O14" s="1">
+        <f>I14*regression!B$18+regression!B$17</f>
+        <v>60042.320600512801</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="13"/>
+        <v>8.6842467475153118</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="14"/>
+        <v>4.7403626894942441</v>
+      </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D15" s="1"/>
